--- a/tests/data.scripts/test/calorimetry/ds.05.ampoule.no.opt/data.xlsx
+++ b/tests/data.scripts/test/calorimetry/ds.05.ampoule.no.opt/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">M</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">SMAPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -811,15 +814,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -827,16 +830,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1143,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00107227298911349</v>
+        <v>0.000875507229432316</v>
       </c>
     </row>
     <row r="4">
@@ -1149,6 +1152,14 @@
       </c>
       <c r="B4" t="n">
         <v>0.000730210337079933</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0612825877028307</v>
       </c>
     </row>
   </sheetData>
@@ -1179,21 +1190,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1201,16 +1212,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1218,16 +1229,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1235,16 +1246,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1252,16 +1263,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1269,16 +1280,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1286,16 +1297,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1303,16 +1314,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1320,16 +1331,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1351,19 +1362,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -1385,16 +1396,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -1402,16 +1413,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -1419,16 +1430,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -1436,16 +1447,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -1453,16 +1464,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -1470,16 +1481,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -1501,7 +1512,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
